--- a/facebook_react_2021-06-01_2022-04-30.xlsx
+++ b/facebook_react_2021-06-01_2022-04-30.xlsx
@@ -10,15 +10,18 @@
     <sheet name="charts" sheetId="1" r:id="rId1"/>
     <sheet name="developer" sheetId="2" r:id="rId2"/>
     <sheet name="branch_cm" sheetId="3" r:id="rId3"/>
-    <sheet name="branch_aoc" sheetId="4" r:id="rId4"/>
-    <sheet name="raw_data" sheetId="5" r:id="rId5"/>
+    <sheet name="branch_adds" sheetId="4" r:id="rId4"/>
+    <sheet name="branch_dels" sheetId="5" r:id="rId5"/>
+    <sheet name="branch_aoc" sheetId="6" r:id="rId6"/>
+    <sheet name="branch_tc" sheetId="7" r:id="rId7"/>
+    <sheet name="raw_data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="1750">
   <si>
     <t>main</t>
   </si>
@@ -5738,7 +5741,779 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="11"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Additions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>main</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'branch_adds'!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'branch_adds'!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7403</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6523</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3446</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8246</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6282</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="4"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deletions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>main</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'branch_dels'!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'branch_dels'!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11830</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25654</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4417</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2429</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="20"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6076,25 +6851,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50020001"/>
+        <c:axId val="50040001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
+        <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50020002"/>
+        <c:axId val="50040002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6102,7 +6877,393 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="13"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TotalChanges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>main</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'branch_tc'!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'branch_tc'!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8751</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51511</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5636</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2836</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5639</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10692</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4637</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11521</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14381</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8917</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4949</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2203</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6178,6 +7339,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8107,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8115,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>680</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8123,7 +9374,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1088</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8131,7 +9382,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6476</v>
+        <v>11012</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8139,7 +9390,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>672</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8147,7 +9398,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>776</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8155,7 +9406,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>699</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8163,7 +9414,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1227</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8171,7 +9422,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2133</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8179,7 +9430,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1746</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8187,7 +9438,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>672</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8195,7 +9446,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8203,7 +9454,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7168</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8211,7 +9462,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1703</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8219,7 +9470,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6027</v>
+        <v>7389</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8227,7 +9478,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>724</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8235,7 +9486,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-543</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8243,7 +9494,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>14573</v>
+        <v>15129</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8251,7 +9502,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>227</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8259,7 +9510,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>203</v>
+        <v>25857</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8267,7 +9518,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>454</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8275,7 +9526,7 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>2643</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8283,7 +9534,7 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>1074</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8291,7 +9542,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>1538</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8299,7 +9550,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-168</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8307,7 +9558,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>1747</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8315,7 +9566,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>4114</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8323,7 +9574,7 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>5225</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8331,7 +9582,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>4389</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8339,7 +9590,7 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>2255</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8347,7 +9598,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>1848</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8355,7 +9606,7 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>2687</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8363,7 +9614,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>1781</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8371,7 +9622,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>2111</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8379,7 +9630,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>3647</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8387,7 +9638,7 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>484</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8395,7 +9646,7 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>767</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8403,7 +9654,7 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>8777</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8411,7 +9662,7 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-403</v>
+        <v>872</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8419,7 +9670,7 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8427,7 +9678,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>481</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8435,7 +9686,7 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>725</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8443,7 +9694,7 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>227</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8451,7 +9702,7 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>1333</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8459,7 +9710,7 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>1487</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8467,7 +9718,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>360</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8475,7 +9726,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>489</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -8484,6 +9735,1197 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>11830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-7168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>14573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>-403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>16492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>15685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>51511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>10692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>7821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>11521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>14381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>8917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>10703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L767"/>
   <sheetViews>
